--- a/training/output/LRSADTLM/P/P1_P2.xlsx
+++ b/training/output/LRSADTLM/P/P1_P2.xlsx
@@ -447,178 +447,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B2" t="n">
-        <v>1.586806477161876</v>
+        <v>1.556241033370035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B3" t="n">
-        <v>1.4781810819057</v>
+        <v>1.475249008128517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B4" t="n">
-        <v>1.440930466902884</v>
+        <v>1.436617263576441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B5" t="n">
-        <v>1.414839016763787</v>
+        <v>1.413459453666419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B6" t="n">
-        <v>1.416347110480593</v>
+        <v>1.416380407517416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B7" t="n">
-        <v>1.41693419531772</v>
+        <v>1.4189063582504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B8" t="n">
-        <v>1.419711836597376</v>
+        <v>1.41966644504614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B9" t="n">
-        <v>1.411701662498608</v>
+        <v>1.411089989176968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B10" t="n">
-        <v>1.401022373584279</v>
+        <v>1.401047599943061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B11" t="n">
-        <v>1.436821784889489</v>
+        <v>1.44471175628796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B12" t="n">
-        <v>1.420409028990227</v>
+        <v>1.42704813522205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B13" t="n">
-        <v>1.415434094897488</v>
+        <v>1.422766936452765</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B14" t="n">
-        <v>1.411029922334771</v>
+        <v>1.413210971313611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B15" t="n">
-        <v>1.39753598497625</v>
+        <v>1.406161584352192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B16" t="n">
-        <v>1.399094730092768</v>
+        <v>1.403901141986512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B17" t="n">
-        <v>1.392860042421441</v>
+        <v>1.39400483432569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B18" t="n">
-        <v>1.397441144575152</v>
+        <v>1.398128156076398</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B19" t="n">
-        <v>1.401785718767266</v>
+        <v>1.403033241891024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B20" t="n">
-        <v>1.441990273040638</v>
+        <v>1.440952334487647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B21" t="n">
-        <v>1.416297824759232</v>
+        <v>1.420813123385112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B22" t="n">
-        <v>1.406686337370622</v>
+        <v>1.415432691574097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B23" t="n">
-        <v>1.395041189695659</v>
+        <v>1.397406226710269</v>
       </c>
     </row>
     <row r="24">
@@ -626,119 +626,119 @@
         <v>0.993421052631579</v>
       </c>
       <c r="B24" t="n">
-        <v>1.3994200877976</v>
+        <v>1.407425520712869</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B25" t="n">
-        <v>1.407578012399506</v>
+        <v>1.411717216173808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B26" t="n">
-        <v>1.394238379963657</v>
+        <v>1.39584942240464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B27" t="n">
-        <v>1.393874998678241</v>
+        <v>1.395457916092454</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B28" t="n">
-        <v>1.393330626320421</v>
+        <v>1.394343135649698</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B29" t="n">
-        <v>1.392633406739486</v>
+        <v>1.392230659200434</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B30" t="n">
-        <v>1.396723439818934</v>
+        <v>1.395729690267329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B31" t="n">
-        <v>1.392650225706268</v>
+        <v>1.39396525893295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B32" t="n">
-        <v>1.398855349473786</v>
+        <v>1.397594180023461</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B33" t="n">
-        <v>1.393309944554379</v>
+        <v>1.392298765349806</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B34" t="n">
-        <v>1.39775382217608</v>
+        <v>1.39963201890912</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B35" t="n">
-        <v>1.402985694115622</v>
+        <v>1.397124380396124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B36" t="n">
-        <v>1.398706128722743</v>
+        <v>1.394107626195539</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B37" t="n">
-        <v>1.397949442528842</v>
+        <v>1.392141952849271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B38" t="n">
-        <v>1.394429188025625</v>
+        <v>1.390223084834584</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>0.993421052631579</v>
       </c>
       <c r="B39" t="n">
-        <v>1.391299904438487</v>
+        <v>1.390252320389999</v>
       </c>
     </row>
     <row r="40">
@@ -754,55 +754,55 @@
         <v>0.993421052631579</v>
       </c>
       <c r="B40" t="n">
-        <v>1.393691324351127</v>
+        <v>1.390767601498386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B41" t="n">
-        <v>1.389682993554232</v>
+        <v>1.388651082390233</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B42" t="n">
-        <v>1.390941368906121</v>
+        <v>1.389553030331929</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B43" t="n">
-        <v>1.391059024292126</v>
+        <v>1.389900169874492</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B44" t="n">
-        <v>1.390996707113166</v>
+        <v>1.391405013569614</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B45" t="n">
-        <v>1.389805208172715</v>
+        <v>1.390056198103386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B46" t="n">
-        <v>1.390473250757184</v>
+        <v>1.390093052596377</v>
       </c>
     </row>
     <row r="47">
@@ -810,23 +810,23 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B47" t="n">
-        <v>1.391517808562831</v>
+        <v>1.391571168313947</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B48" t="n">
-        <v>1.392025723791959</v>
+        <v>1.391638416992991</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B49" t="n">
-        <v>1.395105838775635</v>
+        <v>1.39335644872565</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B50" t="n">
-        <v>1.392723861493562</v>
+        <v>1.391819408065394</v>
       </c>
     </row>
     <row r="51">
@@ -842,39 +842,39 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B51" t="n">
-        <v>1.391851881094146</v>
+        <v>1.390992902872855</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B52" t="n">
-        <v>1.393277833336278</v>
+        <v>1.3943803143083</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B53" t="n">
-        <v>1.390575538601792</v>
+        <v>1.390103381976747</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B54" t="n">
-        <v>1.398009764520745</v>
+        <v>1.396794802264163</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B55" t="n">
-        <v>1.396491615395797</v>
+        <v>1.393096725145976</v>
       </c>
     </row>
     <row r="56">
@@ -882,15 +882,15 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B56" t="n">
-        <v>1.399513886685957</v>
+        <v>1.397060810473927</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B57" t="n">
-        <v>1.391671427509241</v>
+        <v>1.393074363992925</v>
       </c>
     </row>
     <row r="58">
@@ -898,15 +898,15 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B58" t="n">
-        <v>1.39225577471549</v>
+        <v>1.389837718846505</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B59" t="n">
-        <v>1.389880918619925</v>
+        <v>1.389207685202883</v>
       </c>
     </row>
     <row r="60">
@@ -914,63 +914,63 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B60" t="n">
-        <v>1.436931122813308</v>
+        <v>1.440557028117933</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B61" t="n">
-        <v>1.391991153097989</v>
+        <v>1.388718487923605</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B62" t="n">
-        <v>1.392146581097653</v>
+        <v>1.389540569824085</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B63" t="n">
-        <v>1.392958938029774</v>
+        <v>1.397460759731761</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B64" t="n">
-        <v>1.389203567253916</v>
+        <v>1.389056504818431</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B65" t="n">
-        <v>1.393087658965797</v>
+        <v>1.395443385107475</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B66" t="n">
-        <v>1.414632556731241</v>
+        <v>1.409343232188308</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B67" t="n">
-        <v>1.396332849536026</v>
+        <v>1.395021587087397</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B68" t="n">
-        <v>1.391674961960107</v>
+        <v>1.389614285084239</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389738783501742</v>
+        <v>1.389061559710586</v>
       </c>
     </row>
     <row r="70">
@@ -994,15 +994,15 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390143409109952</v>
+        <v>1.389562175984968</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B71" t="n">
-        <v>1.414614570768256</v>
+        <v>1.410562542446873</v>
       </c>
     </row>
     <row r="72">
@@ -1010,15 +1010,15 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B72" t="n">
-        <v>1.396983420639707</v>
+        <v>1.392007302819637</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B73" t="n">
-        <v>1.434996868434705</v>
+        <v>1.421169839407268</v>
       </c>
     </row>
     <row r="74">
@@ -1026,39 +1026,39 @@
         <v>0.9923245614035088</v>
       </c>
       <c r="B74" t="n">
-        <v>1.391303765146356</v>
+        <v>1.394343890641865</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B75" t="n">
-        <v>1.396632207067389</v>
+        <v>1.397228102934988</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390810740621466</v>
+        <v>1.38961576788049</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B77" t="n">
-        <v>1.390953112066838</v>
+        <v>1.389906956438433</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B78" t="n">
-        <v>1.394119662151002</v>
+        <v>1.39225257070441</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B79" t="n">
-        <v>1.390709285150495</v>
+        <v>1.390900057658815</v>
       </c>
     </row>
     <row r="80">
@@ -1074,71 +1074,71 @@
         <v>0.993421052631579</v>
       </c>
       <c r="B80" t="n">
-        <v>1.38917306849831</v>
+        <v>1.39088515440623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B81" t="n">
-        <v>1.426433795376828</v>
+        <v>1.441305375935739</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B82" t="n">
-        <v>1.408064037038569</v>
+        <v>1.400440642708226</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B83" t="n">
-        <v>1.393938426385846</v>
+        <v>1.391680690280178</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B84" t="n">
-        <v>1.399649331444188</v>
+        <v>1.412155642844083</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391565166021648</v>
+        <v>1.393873139431602</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B86" t="n">
-        <v>1.410336686853777</v>
+        <v>1.403904053202847</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B87" t="n">
-        <v>1.398246558089005</v>
+        <v>1.396691757335997</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B88" t="n">
-        <v>1.431818598195126</v>
+        <v>1.433992134897332</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>0.993421052631579</v>
       </c>
       <c r="B89" t="n">
-        <v>1.39960553562432</v>
+        <v>1.401351380766484</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B90" t="n">
-        <v>1.396659886627867</v>
+        <v>1.401343197153326</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B91" t="n">
-        <v>1.394252662073102</v>
+        <v>1.394040871084782</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389292604044864</v>
+        <v>1.389686078356023</v>
       </c>
     </row>
     <row r="93">
@@ -1178,15 +1178,15 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B93" t="n">
-        <v>1.391344867254558</v>
+        <v>1.398237537919429</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B94" t="n">
-        <v>1.392384424544217</v>
+        <v>1.392493109954031</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B95" t="n">
-        <v>1.391114101075289</v>
+        <v>1.393143568122596</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388259320928339</v>
+        <v>1.388463622645328</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B97" t="n">
-        <v>1.390438307795608</v>
+        <v>1.391770877336201</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B98" t="n">
-        <v>1.390477795349924</v>
+        <v>1.39240028356251</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B99" t="n">
-        <v>1.392387141261184</v>
+        <v>1.391953252909476</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B100" t="n">
-        <v>1.406724275204173</v>
+        <v>1.399148901303609</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B101" t="n">
-        <v>1.392049481994227</v>
+        <v>1.387912919646815</v>
       </c>
     </row>
   </sheetData>
